--- a/Tabela/Cabo Frio/Cabo Frio-6.xlsx
+++ b/Tabela/Cabo Frio/Cabo Frio-6.xlsx
@@ -14,357 +14,366 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="120">
+  <si>
+    <t>Para quem procura mais espaço para a família.Apartamentos...</t>
+  </si>
+  <si>
+    <t>Mensagem</t>
+  </si>
+  <si>
+    <t>mais</t>
+  </si>
   <si>
     <t>em construção</t>
   </si>
   <si>
-    <t>Mensagem</t>
-  </si>
-  <si>
-    <t>R$ 1.672.051</t>
-  </si>
-  <si>
     <t>super destaque</t>
   </si>
   <si>
+    <t>R$ 115.000</t>
+  </si>
+  <si>
+    <t>destaque</t>
+  </si>
+  <si>
+    <t>R$ 105.000</t>
+  </si>
+  <si>
+    <t>R$ 215.000</t>
+  </si>
+  <si>
+    <t>R$ 130.000</t>
+  </si>
+  <si>
+    <t>R$ 135.000</t>
+  </si>
+  <si>
+    <t>R$ 110.000</t>
+  </si>
+  <si>
+    <t>R$ 160.000</t>
+  </si>
+  <si>
+    <t>R$ 190.000</t>
+  </si>
+  <si>
+    <t>R$ 170.000</t>
+  </si>
+  <si>
     <t>R$ 200.000</t>
   </si>
   <si>
-    <t>R$ 159.999</t>
-  </si>
-  <si>
-    <t>destaque</t>
-  </si>
-  <si>
-    <t>R$ 280.000</t>
-  </si>
-  <si>
-    <t>R$ 199.990</t>
-  </si>
-  <si>
-    <t>R$ 360.000</t>
-  </si>
-  <si>
-    <t>R$ 220.000</t>
-  </si>
-  <si>
-    <t>R$ 380.000</t>
-  </si>
-  <si>
-    <t>R$ 105.000</t>
-  </si>
-  <si>
-    <t>R$ 300.000</t>
-  </si>
-  <si>
-    <t>Viva em uma das regiões mais encantadoras e desejadas de Vitória, no coração da cena urbana de Vitória, perto de supermercados, pet shops, shopping e da praia!</t>
-  </si>
-  <si>
-    <t>R$ 960.000</t>
-  </si>
-  <si>
-    <t>R$ 135.000</t>
-  </si>
-  <si>
-    <t>R$ 1.870.000</t>
-  </si>
-  <si>
-    <t>Alugo ou vendo apartamento em Cabo Frio, composto por 2 quartos sendo uma suite com closet, sala ampla, cozinha, área de serviço e varanda.</t>
-  </si>
-  <si>
-    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Imóveis</t>
-  </si>
-  <si>
-    <t>R$ 169.999</t>
-  </si>
-  <si>
-    <t>R$ 235.000</t>
-  </si>
-  <si>
-    <t>Casa Semi Pronta com 3 quartos, sendo 2 suítes e 2 banheiros em Tamoio - Cabo Frio!</t>
-  </si>
-  <si>
-    <t>CÓDIGO DO ANÚNCIO : 3209 / CA0231</t>
-  </si>
-  <si>
-    <t>R$ 170.000</t>
-  </si>
-  <si>
-    <t>CÓDIGO DO ANÚNCIO: CA0561 / Placa 528</t>
-  </si>
-  <si>
-    <t>Linda casa com 3 quartos com piscina e área gourmet em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>Casa com 3 quartos, sendo 1 suíte com , Piscina sala ampla, cozinha tradicional com armários de baixo da pia, cantinho da leitura , jardim, banheiro social, garagem para até 4 carr...</t>
-  </si>
-  <si>
-    <t>Incrível casa com 3 quartos com piscina e área gourmet em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>FAÇA JÁ SUA SIMULAÇÃO E NÃO PERCA ESSA OPORTUNIDADE!!!</t>
-  </si>
-  <si>
-    <t>IPTU R$ 230</t>
-  </si>
-  <si>
-    <t>R$ 270.000</t>
-  </si>
-  <si>
-    <t>FINANCIAMENTO DIRETO COM A CONSTRUTORA;</t>
-  </si>
-  <si>
-    <t>R$ 295.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 740 IPTU R$ 1.070</t>
-  </si>
-  <si>
-    <t>Linda casa 2 quartos com piscina e área gourmet em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>condomínio R$ 760 IPTU R$ 334</t>
-  </si>
-  <si>
-    <t>Apartamento a 5 minutos do Centro de...</t>
-  </si>
-  <si>
-    <t>CRECI/RJ: 075.292</t>
-  </si>
-  <si>
-    <t>Linda casa de 2 quartos com área gourmet e piscina em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>duas casas Unamar (Tamoios) total 160 metros quadrados com 4 quartos sendo 2 suites e 4 banheiros</t>
-  </si>
-  <si>
-    <t>Excelente casa 2 quartos com área gourmet e piscina em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>mais</t>
-  </si>
-  <si>
-    <t>FINANCIAMENTO DIRETO COM A CONSTRUTORA.</t>
-  </si>
-  <si>
-    <t>Vendo 2 casas</t>
-  </si>
-  <si>
-    <t>IPTU R$ 200</t>
-  </si>
-  <si>
-    <t>condomínio R$ 462 IPTU R$ 800</t>
-  </si>
-  <si>
-    <t>Oportunidade!! Terreno com duas casas em rua comercial. Ideal para comércio, mas também já prontas as casas servindo para residências. 288 m2 de terreno. Documentação de posse há m...</t>
-  </si>
-  <si>
-    <t>3 suítes, apa...</t>
-  </si>
-  <si>
-    <t>Sinta a brisa do mar todos os dias nessa casa incrível pertinho da Praia do Forte em seu degradê azul e areia branca fininha. Excelente apartamento com vista para a deslumbrante Pr...</t>
-  </si>
-  <si>
-    <t>Linda cobertura a poucos metros da Praia do Forte.</t>
-  </si>
-  <si>
-    <t>Vai lhe possibilitar desfrutar de seu próprio quintal, todo o conforto do ar co...</t>
-  </si>
-  <si>
-    <t>Casa Composta por :</t>
-  </si>
-  <si>
-    <t>Condomínio Gravatá 2</t>
-  </si>
-  <si>
-    <t>IMOBILIÁRIA MAGDALA FURTADO VENDE:</t>
-  </si>
-  <si>
-    <t>Rua Cinco, Unamar</t>
-  </si>
-  <si>
-    <t>1 composto por 2 quartos sala com 2 ambientes, cozinha, copa, área de serviço, varanda, quintal com arvores frutíferas e espaço para área gourmet e piscina</t>
-  </si>
-  <si>
-    <t>CASA LINEAR COMPOSTA POR, 3 QUARTOS, SALA, COZINHA COM MÓVEIS PLANEJADOS, 2 BANHEIROS, LAVABO, ÁREA DE SERVIÇO, ÁREA GOURMET, VARANDA, JARDIM, VAGA PARA 3 CARROS, ACABAMENTO TODO E...</t>
-  </si>
-  <si>
-    <t>ENTRADA+PARCELAS</t>
-  </si>
-  <si>
-    <t>O apartamento no bairro Braga tem 83 metros quadrados com 2 quartos sendo 1 suite e 2 banheiros</t>
-  </si>
-  <si>
-    <t>Armários pré moldados cozinha e banheiro, acabamento finíssimo.</t>
-  </si>
-  <si>
-    <t>Estrada de Antenor Cardoso da Fonseca, Jardim Esperanca</t>
-  </si>
-  <si>
-    <t>Cód: JMC-035-1</t>
-  </si>
-  <si>
-    <t>CR...</t>
-  </si>
-  <si>
-    <t>100 m²</t>
-  </si>
-  <si>
-    <t>ENTRADA+PARCELAS.</t>
-  </si>
-  <si>
-    <t>Possui espaço para festas.Encontra-se em um condomínio protegido por muros.</t>
-  </si>
-  <si>
-    <t>Jardim Excelsior, Cabo Frio</t>
-  </si>
-  <si>
-    <t>Avenida Rio Branco, Praia do Canto</t>
+    <t>Rua Humberto Martins de Paula, Enseada do Suá</t>
+  </si>
+  <si>
+    <t>Sob consulta</t>
+  </si>
+  <si>
+    <t>R$ 90.000</t>
+  </si>
+  <si>
+    <t>R$ 850.000</t>
+  </si>
+  <si>
+    <t>Realize o Seu sonho da Sua Casa de Praia</t>
+  </si>
+  <si>
+    <t>Este Imóvel está disponível na planta , Cuidamos de todo o processo até a entrega das chaves</t>
+  </si>
+  <si>
+    <t>IPTU R$ 100</t>
+  </si>
+  <si>
+    <t>R$ 260.000</t>
+  </si>
+  <si>
+    <t>Casa com 2 dormitórios, sala, banheiro, cozinha americana, área de serviço, área gourmet, lavabo e chuveirão.</t>
+  </si>
+  <si>
+    <t>Casa á Venda em Unamar- Cabo Frio, Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Cresci RJ-008451/O</t>
+  </si>
+  <si>
+    <t>Casa pronta para morar em Unamar Cabo Frio/RJ.</t>
+  </si>
+  <si>
+    <t>O imóvel possui as seguintes características;</t>
+  </si>
+  <si>
+    <t>Sua oportunidade de morar na região dos Lago está na aqui IMOBILIÁRIA CONFIANÇA.</t>
+  </si>
+  <si>
+    <t>R$ 510.000</t>
+  </si>
+  <si>
+    <t>Casa para venda com 2 quartos em Unamar (Tamoios) - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>condomínioR$ 150 IPTU R$ 300</t>
+  </si>
+  <si>
+    <t>Venha conquistar seu imóvel para o final de ano.</t>
+  </si>
+  <si>
+    <t>Casa localizada em Unamar, segundo distrito de Cabo Frio .</t>
+  </si>
+  <si>
+    <t>137 m²</t>
+  </si>
+  <si>
+    <t>Um novo ícone da arquitetura chega para trazer novos ares à cidade. Um bairro que busca inspiração no que há de melhor em Nova Iorque, sendo uma referência em Vitória. Viver em um...</t>
+  </si>
+  <si>
+    <t>Garantia de investimento seguro e rentável</t>
+  </si>
+  <si>
+    <t>condomínioR$ 671 IPTU R$ 2.487</t>
+  </si>
+  <si>
+    <t>OPORTUNIDADE!</t>
+  </si>
+  <si>
+    <t>CASA ESPETACULAR COM PISCINA E AREA GOURMET.</t>
+  </si>
+  <si>
+    <t>Excelente imóvel, com 2 quartos, sendo 1 suíte, sala ampla e cozinha linda e planejada para você, 2 banheiros, varanda, área de serviço espaçosa e arejada, área para churrasqueira...</t>
+  </si>
+  <si>
+    <t>A Imobiliária Confiança Oferece uma Excelente Oportunidade!!</t>
+  </si>
+  <si>
+    <t>Sala, 3 quartos, sendo 1 suíte, ampla cozinha, varanda e área de serviço. Possui 144m2 de área edificada no IPTU e 315m2 de terren...</t>
+  </si>
+  <si>
+    <t>Excelente Casa na Região Dos Lagos.</t>
+  </si>
+  <si>
+    <t>condomínioR$ 600 IPTU R$ 1.100</t>
+  </si>
+  <si>
+    <t>A casa de condomínio no bairro Nova Califórnia (Tamoios) tem 65 metros quadrados com 2 quartos sendo 1 suite e 2 banheiros,área gourmet!</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Se você sonha em morar ou ter um apartamento para passar temporada perto da praia, a sua procura chegou ao fim.</t>
+  </si>
+  <si>
+    <t>Conhece o padrão Alphaville? Então essa área é sua oportunidade.</t>
+  </si>
+  <si>
+    <t>M.CARVALHO IMÓVEIS VENDE</t>
+  </si>
+  <si>
+    <t>OBS: FINANCIAMENTO DIRETO COM O CONSTRUTOR / NÃO ACEITAMOS FINANCIAMENTO BANCÁRI...</t>
+  </si>
+  <si>
+    <t>OBS: FINANCIAMENTO DIRETO COM O CONSTRUTOR / NÃO ACEITAMOS FINA...</t>
+  </si>
+  <si>
+    <t>Casa com 2 quartos, sala, banheiro social, cozinha, área de serviço, área gourmet com banheiro externo Piscina e garagem.</t>
+  </si>
+  <si>
+    <t>Disponível em fase de construção ￼</t>
+  </si>
+  <si>
+    <t>Valor de R$ 110mil, a vista.</t>
+  </si>
+  <si>
+    <t>Vendo excelente apto no Braga , para pessoas de bom gosto ; sala 2 ambientes 2 qtos sendo uma suíte ambos com armários embutidos ,Banheiro social, varandão, cozinha altamente monta...</t>
+  </si>
+  <si>
+    <t>Venha morar na região dos lagos</t>
+  </si>
+  <si>
+    <t>Imóvel pronta para morar localizado no condomínio fechado .</t>
+  </si>
+  <si>
+    <t>- Ótima Localização dentro do condomínio.</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Rua José Alexandre Buaiz, Enseada do Suá</t>
+  </si>
+  <si>
+    <t>Leilão judicial</t>
+  </si>
+  <si>
+    <t>Não é novidade em dizer que a rede de condomínio Alphaville é sinônimo de conforto e qualidade...</t>
+  </si>
+  <si>
+    <t>OBS: ( DEIXE SEU NÚMERO COM DDD ,A GENTE LIGA PRA VOCÊ )</t>
+  </si>
+  <si>
+    <t>Unamar, Cabo Frio</t>
+  </si>
+  <si>
+    <t>toda no Porcelanato, Composta por:</t>
+  </si>
+  <si>
+    <t>Linda Casa em Tamoios 2⁰ Distrito de Cabo Frio</t>
+  </si>
+  <si>
+    <t>Ótima Oportunidade pra adquirir seu imóvel.</t>
+  </si>
+  <si>
+    <t>Rua das Pacas, Nova California Tamoios</t>
+  </si>
+  <si>
+    <t>- Todo Comércio próximo ao imóvel.</t>
+  </si>
+  <si>
+    <t>96 - 137 m²</t>
+  </si>
+  <si>
+    <t>Valor inicial: R$ 90.000,00</t>
+  </si>
+  <si>
+    <t>Este imóvel tem uma localização diferenciada.</t>
+  </si>
+  <si>
+    <t>RESIDENCIAL GRAVATÁ, EXCELENTE IMOVEL BEM LOCALIZADO EM AREA NOBRE DE UNAMAR,,,,PERTINHO DA PRAIA DO...</t>
+  </si>
+  <si>
+    <t>Avenida Independência, Unamar</t>
+  </si>
+  <si>
+    <t>120 m²</t>
+  </si>
+  <si>
+    <t>2 quartos amplos, 1 suíte, Sala ampla e arejada com pintura perfeita, Coz...</t>
+  </si>
+  <si>
+    <t>Ótima Oportunidade pra você adquirir seu Imóvel Novo, com uma condição especial !</t>
+  </si>
+  <si>
+    <t>Casa com:</t>
+  </si>
+  <si>
+    <t>80 m²</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Avenida Vereador Antônio Ferreira dos Santos, Braga</t>
+  </si>
+  <si>
+    <t>composta por 2 quartos,...</t>
+  </si>
+  <si>
+    <t>65 m²</t>
+  </si>
+  <si>
+    <t>Deixe seu contato para mais informações</t>
+  </si>
+  <si>
+    <t>- Casa próxima a praia.</t>
+  </si>
+  <si>
+    <t>3 - 4</t>
+  </si>
+  <si>
+    <t>Valor Avaliação: R$ 180.000,00</t>
+  </si>
+  <si>
+    <t>O bairro é u...</t>
+  </si>
+  <si>
+    <t>Peró, Cabo Frio</t>
+  </si>
+  <si>
+    <t>Ótima Oportunidade pra você adquirir seu Imó...</t>
+  </si>
+  <si>
+    <t>60 m²</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>57 m²</t>
+  </si>
+  <si>
+    <t>56 m²</t>
+  </si>
+  <si>
+    <t>2 quartos</t>
+  </si>
+  <si>
+    <t>92 m²</t>
+  </si>
+  <si>
+    <t>Ligação fal...</t>
+  </si>
+  <si>
+    <t>- Ca...</t>
+  </si>
+  <si>
+    <t>2 - 3</t>
+  </si>
+  <si>
+    <t>Pagamento: À vista ou com parcelamento, faça u...</t>
+  </si>
+  <si>
+    <t>408 m²</t>
+  </si>
+  <si>
+    <t>Casa possui 2 qua...</t>
+  </si>
+  <si>
+    <t>Casa possui 2 quartos</t>
+  </si>
+  <si>
+    <t>Cozinha americana</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>Praia do Forte, Cabo Frio</t>
   </si>
   <si>
-    <t>CRECI/...</t>
-  </si>
-  <si>
-    <t>Cobertura com grande espaço, composta por 5 suítes, 1 lavab...</t>
-  </si>
-  <si>
-    <t>98 m²</t>
-  </si>
-  <si>
-    <t>CRE...</t>
-  </si>
-  <si>
-    <t>Rua Francisco Nelson Furtado, Bairro Sinagoga Tamoios</t>
-  </si>
-  <si>
-    <t>Cód: JMC-019</t>
-  </si>
-  <si>
-    <t>- 1º andar:</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Avenida Independência, Unamar</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>ÚLTIMAS UNIDADES, ENTRE EM COM NOSSA EQUIPE E RESERVE JÁ A SUA.</t>
-  </si>
-  <si>
-    <t>El...</t>
-  </si>
-  <si>
-    <t>288 m²</t>
-  </si>
-  <si>
-    <t>100 - 196 m²</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>CASA COM 2 QUARTOS SENDO 1 SUÍTE, SALA COM COZINHA...</t>
-  </si>
-  <si>
-    <t>160 m²</t>
-  </si>
-  <si>
-    <t>Casa com 3 quartos, sendo 2 suítes, 2 closet, sala, 4 banheiros, 1 lavabo, área de serviç...</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>164 m²</t>
-  </si>
-  <si>
-    <t>Casa de 2 quartos; sala; cozinha; banheiro social...</t>
-  </si>
-  <si>
-    <t>Centro, Cabo Frio</t>
-  </si>
-  <si>
-    <t>CASA DE 2 QUARTOS SENDO UMA SUÍTE, SALA, BANHEIRO SO...</t>
-  </si>
-  <si>
-    <t>- 2 quartos, sendo 1 suíte ( Quarto preci...</t>
-  </si>
-  <si>
-    <t>Casa com 3 quartos, sendo 3 com suítes, sala, cozinha, banheiro social, área de serviço, quartinho para...</t>
-  </si>
-  <si>
-    <t>165 m²</t>
-  </si>
-  <si>
-    <t>Rua Seis, Reserva do Pero</t>
-  </si>
-  <si>
-    <t>Casa com área gourmet, 2 quartos, sal...</t>
-  </si>
-  <si>
-    <t>Avenida Vereador Antônio Ferreira dos Santos, Braga</t>
-  </si>
-  <si>
-    <t>2 - 3</t>
-  </si>
-  <si>
-    <t>60 m²</t>
-  </si>
-  <si>
-    <t>267 m²</t>
-  </si>
-  <si>
-    <t>71 m²</t>
-  </si>
-  <si>
     <t>70 m²</t>
   </si>
   <si>
-    <t>Santa Margarida I Tamoios, Cabo Frio</t>
-  </si>
-  <si>
-    <t>Unamar, Cabo Frio</t>
-  </si>
-  <si>
-    <t>120 m²</t>
-  </si>
-  <si>
-    <t>83 m²</t>
+    <t>2 Banheiro totais</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>5</t>
+    <t>66 m²</t>
   </si>
   <si>
     <t>Nova California Tamoios, Cabo Frio</t>
   </si>
   <si>
-    <t>205 m²</t>
-  </si>
-  <si>
-    <t>150 m²</t>
-  </si>
-  <si>
-    <t>191 m²</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>61 m²</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>Caminho de Buzios, Cabo Frio</t>
+  </si>
+  <si>
+    <t>182 m²</t>
+  </si>
+  <si>
+    <t>Área de serviço &lt;...</t>
+  </si>
+  <si>
+    <t>59 m²</t>
+  </si>
+  <si>
+    <t>90 m²</t>
+  </si>
+  <si>
+    <t>55 m²</t>
+  </si>
+  <si>
+    <t>Avenida Gravatá, Nova California Tamoios</t>
   </si>
 </sst>
 </file>
@@ -722,13 +731,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -774,8 +783,14 @@
       <c r="P1" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -786,28 +801,22 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -818,34 +827,28 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -853,40 +856,46 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="K4" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>93</v>
+      </c>
+      <c r="O4" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -894,43 +903,43 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" t="s">
         <v>60</v>
       </c>
-      <c r="H5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" t="s">
-        <v>109</v>
-      </c>
-      <c r="M5" t="s">
-        <v>84</v>
-      </c>
       <c r="N5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>93</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -941,28 +950,28 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -973,37 +982,37 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1011,40 +1020,40 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1052,37 +1061,34 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1090,43 +1096,34 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" t="s">
-        <v>102</v>
-      </c>
-      <c r="N10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1134,40 +1131,40 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="M11" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="N11" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11" t="s">
-        <v>116</v>
-      </c>
-      <c r="P11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1175,37 +1172,34 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>94</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s">
-        <v>110</v>
-      </c>
-      <c r="M12" t="s">
-        <v>113</v>
-      </c>
-      <c r="N12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O12" t="s">
-        <v>116</v>
-      </c>
-      <c r="P12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1213,40 +1207,34 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
-      </c>
-      <c r="M13" t="s">
-        <v>77</v>
-      </c>
-      <c r="N13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1254,37 +1242,40 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" t="s">
-        <v>87</v>
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="M14" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="N14" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="O14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>93</v>
+      </c>
+      <c r="P14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1298,31 +1289,34 @@
         <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" t="s">
         <v>78</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K15" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="M15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>92</v>
+      </c>
+      <c r="N15" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1335,26 +1329,44 @@
       <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
       <c r="F16" t="s">
         <v>55</v>
       </c>
-      <c r="G16" t="s">
-        <v>64</v>
-      </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>105</v>
+      </c>
+      <c r="K16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>119</v>
+      </c>
+      <c r="O16" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>93</v>
+      </c>
+      <c r="R16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1362,34 +1374,34 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
       </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="K17" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1397,40 +1409,40 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="H18" t="s">
+        <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="M18" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="N18" t="s">
-        <v>108</v>
-      </c>
-      <c r="O18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1438,40 +1450,37 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
         <v>56</v>
       </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="J19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M19" t="s">
-        <v>114</v>
-      </c>
-      <c r="N19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1479,37 +1488,40 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
         <v>31</v>
       </c>
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
       <c r="F20" t="s">
         <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K20" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>93</v>
+      </c>
+      <c r="M20" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1517,40 +1529,34 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
       </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
       </c>
       <c r="H21" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="I21" t="s">
+        <v>93</v>
       </c>
       <c r="J21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" t="s">
-        <v>78</v>
-      </c>
-      <c r="M21" t="s">
-        <v>115</v>
-      </c>
-      <c r="N21" t="s">
-        <v>84</v>
-      </c>
-      <c r="O21" t="s">
-        <v>108</v>
-      </c>
-      <c r="P21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1558,43 +1564,40 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="L22" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="M22" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="N22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>93</v>
+      </c>
+      <c r="O22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1602,31 +1605,81 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="I23" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="K23" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="L23" t="s">
+        <v>116</v>
+      </c>
+      <c r="M23" t="s">
+        <v>93</v>
+      </c>
+      <c r="N23" t="s">
+        <v>93</v>
+      </c>
+      <c r="O23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>112</v>
+      </c>
+      <c r="L24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N24" t="s">
+        <v>106</v>
+      </c>
+      <c r="O24" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
